--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_0_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_0_28.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91539.97128896153</v>
+        <v>6506220.642052395</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91539.97128896153</v>
+        <v>6506220.642052395</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1608361822.88707</v>
+        <v>56936197.78863398</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15795.46105650987</v>
+        <v>1179061.380201631</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31579.85387608268</v>
+        <v>2358122.760403262</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47374.67084767241</v>
+        <v>3537184.140604894</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>64233.2280987939</v>
+        <v>4640179.903859979</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>80365.62683463805</v>
+        <v>5817001.71232676</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96498.02557047558</v>
+        <v>6993823.52079427</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>112630.424306311</v>
+        <v>8170645.329261904</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>128762.8230421432</v>
+        <v>9347467.137729988</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>145621.3802932645</v>
+        <v>10450462.90098504</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>161753.7790290948</v>
+        <v>11627284.70945332</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>177870.6134587996</v>
+        <v>12805164.33792162</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>193987.4478885043</v>
+        <v>13983043.96638992</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>210104.282318209</v>
+        <v>15160923.59485823</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>226962.8395693304</v>
+        <v>16263919.35811332</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>245885.2727884526</v>
+        <v>17102575.71557635</v>
       </c>
     </row>
   </sheetData>
